--- a/biology/Médecine/Périnatalogie/Périnatalogie.xlsx
+++ b/biology/Médecine/Périnatalogie/Périnatalogie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>P%C3%A9rinatalogie</t>
+          <t>Périnatalogie</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La périnatalogie ou périnatologie est la science qui s'occupe de périnatalité c'est-à-dire stricto sensu de la période entre la 28e semaine d'aménorrhée et le 8e jour suivant la naissance, du point de vue de la santé et de la survie du fœtus ou du nouveau-né[1]. Elle s'occupe donc de santé maternelle et fœtale.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La périnatalogie ou périnatologie est la science qui s'occupe de périnatalité c'est-à-dire stricto sensu de la période entre la 28e semaine d'aménorrhée et le 8e jour suivant la naissance, du point de vue de la santé et de la survie du fœtus ou du nouveau-né. Elle s'occupe donc de santé maternelle et fœtale.
 Par extension, la périnatalogie englobe la néonatalogie, ainsi que les notions de désir d'enfant, de conception, de grossesse, d'accouchement, des choix des parents relatifs à cette naissance, de l'accueil du nouveau-né, de l'allaitement, des premiers liens, des premiers jours et voire des premiers mois avec son bébé.
 </t>
         </is>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>P%C3%A9rinatalogie</t>
+          <t>Périnatalogie</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La périnatalogie est un concept récent : en France le décret du 10 octobre 1998 définit les unités de néonatalogie en trois niveaux[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La périnatalogie est un concept récent : en France le décret du 10 octobre 1998 définit les unités de néonatalogie en trois niveaux.
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>P%C3%A9rinatalogie</t>
+          <t>Périnatalogie</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Prise en charge en périnatalogie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>D’une manière générale, une prise en charge de périnatalogie comprend :
 un suivi de la grossesse et du contexte de l’accouchement,
